--- a/Data/Input/Daily/Fields to be added on UI by Huphin_Daily_06-03-2023.xlsx
+++ b/Data/Input/Daily/Fields to be added on UI by Huphin_Daily_06-03-2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation_bot 2\Data\Input\Daily\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABA1C2E-2D0A-4192-A2B2-887694206F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD13AD0-9BA4-4A6F-AEBA-BB7A540793F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3276" yWindow="5388" windowWidth="7500" windowHeight="3000" tabRatio="678" firstSheet="2" activeTab="2" xr2:uid="{1A73FDFA-0A4F-44AD-AEF3-68F0BEA705B7}"/>
+    <workbookView xWindow="3624" yWindow="5736" windowWidth="7500" windowHeight="3000" tabRatio="678" firstSheet="2" activeTab="2" xr2:uid="{1A73FDFA-0A4F-44AD-AEF3-68F0BEA705B7}"/>
   </bookViews>
   <sheets>
     <sheet name="MonthlyCust (2)" sheetId="13" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="536">
   <si>
     <t>HC40T</t>
   </si>
@@ -1799,6 +1799,12 @@
     <t>WC3151P</t>
   </si>
   <si>
+    <t>M-JB402-2840</t>
+  </si>
+  <si>
+    <t>M:\2. Sales Department\Unipath\Purchase Orders\M-JB402-2840.pdf</t>
+  </si>
+  <si>
     <t>M:\2. Sales Department\Unipath\Delivery Orders\Daily\DOPDFs_14-02-2023\HupHin-DeliveryOrder-DO230109006-2023-02-14.pdf</t>
   </si>
   <si>
@@ -1820,23 +1826,62 @@
     <t>Success</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">40FT FLAT BED TRAILER </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">≤ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>24 TON</t>
+    </r>
+  </si>
+  <si>
+    <t>HH-Q00010-23-RIC</t>
+  </si>
+  <si>
+    <t>M:\2. Sales Department\Unipath\Quotations\HH-Q00020-23-AA.xlsx</t>
+  </si>
+  <si>
+    <t>HH-Q00105R1-22-RIC</t>
+  </si>
+  <si>
     <t>M:\2. Sales Department\Unipath\Quotations\HH-Q00105R1-22-RIC.xlsx</t>
   </si>
   <si>
-    <t>HH-Q00105R1-22-RIC</t>
-  </si>
-  <si>
-    <t>M:\2. Sales Department\Unipath\Invoices\Daily\Invoices_05-03-2023\IN 22120686 - Daily Scenario.pdf</t>
-  </si>
-  <si>
-    <t>IN 22120686</t>
+    <t>DO230109056</t>
+  </si>
+  <si>
+    <t>M:\2. Sales Department\Unipath\Invoices\Daily\Invoices_06-03-2023\IN 22120696 - Daily Scenario.pdf</t>
+  </si>
+  <si>
+    <t>IN 22120696</t>
+  </si>
+  <si>
+    <t>M:\2. Sales Department\Unipath\Invoices\Daily\Invoices_06-03-2023\IN 22120697 - Daily Scenario.pdf</t>
+  </si>
+  <si>
+    <t>IN 22120697</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1906,13 +1951,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1946,27 +1984,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE7ECF1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFE7ECF1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE7ECF1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFE7ECF1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1987,7 +2010,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2027,12 +2050,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="22" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2945,10 +2963,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD80626F-4EE6-4A1B-BAC6-4FE9B121A377}">
-  <dimension ref="A1:AK9"/>
+  <dimension ref="A1:AK96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:Z2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3070,27 +3088,31 @@
       <c r="AJ1" s="13"/>
       <c r="AK1" s="13"/>
     </row>
-    <row r="2" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>524</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+        <v>528</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>518</v>
+      </c>
       <c r="E2" s="14"/>
       <c r="F2" s="14" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="H2" s="14" t="s">
         <v>30</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="J2" t="s">
         <v>514</v>
@@ -3107,56 +3129,99 @@
       <c r="O2" t="s">
         <v>515</v>
       </c>
-      <c r="P2" s="25" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q2" s="25" t="s">
-        <v>520</v>
-      </c>
-      <c r="R2" s="25" t="s">
+      <c r="P2" s="22" t="s">
         <v>521</v>
       </c>
-      <c r="S2" s="25" t="s">
+      <c r="Q2" s="22" t="s">
         <v>522</v>
+      </c>
+      <c r="R2" s="22" t="s">
+        <v>523</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>524</v>
       </c>
       <c r="T2" t="b">
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="W2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="Y2" t="s">
-        <v>523</v>
-      </c>
-      <c r="Z2" s="26"/>
-    </row>
-    <row r="3" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
+        <v>525</v>
+      </c>
+      <c r="Z2" s="23"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>530</v>
+      </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
+      <c r="F3" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>520</v>
+      </c>
+      <c r="J3" t="s">
+        <v>531</v>
+      </c>
+      <c r="K3" t="s">
+        <v>513</v>
+      </c>
+      <c r="M3" t="s">
+        <v>516</v>
+      </c>
+      <c r="N3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O3" t="s">
+        <v>515</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>522</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>523</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>524</v>
+      </c>
+      <c r="T3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
+        <v>519</v>
+      </c>
+      <c r="W3" t="s">
+        <v>525</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="4" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E4" s="3"/>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
-      <c r="T4" s="23"/>
+      <c r="T4" s="21"/>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -3189,6 +3254,11 @@
     <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D96" t="s">
+        <v>526</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -3719,10 +3789,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDBC129-ECCE-4153-8F48-605086C90137}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4380,6 +4450,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D96" t="s">
+        <v>526</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4390,8 +4465,9 @@
   <dimension ref="A1:W130"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A122" sqref="A122"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6678,6 +6754,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="0f2ac075-41ad-49ac-8f8f-deebc546c741" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e73b1f32-535a-40bf-95de-5e4e52a9bea4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F784BE4360C98D4FB257A0FD34EA02FE" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9990601204655ef79abb207665927850">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e73b1f32-535a-40bf-95de-5e4e52a9bea4" xmlns:ns3="0f2ac075-41ad-49ac-8f8f-deebc546c741" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="531a7b24c840301f317ddb076c833d55" ns2:_="" ns3:_="">
     <xsd:import namespace="e73b1f32-535a-40bf-95de-5e4e52a9bea4"/>
@@ -6914,41 +7010,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="0f2ac075-41ad-49ac-8f8f-deebc546c741" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e73b1f32-535a-40bf-95de-5e4e52a9bea4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A93A08A7-49E3-43A9-93F3-9588D32870FD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12142E21-A9D0-4ACC-8432-E8BE1703AF0C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e73b1f32-535a-40bf-95de-5e4e52a9bea4"/>
-    <ds:schemaRef ds:uri="0f2ac075-41ad-49ac-8f8f-deebc546c741"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6967,9 +7032,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12142E21-A9D0-4ACC-8432-E8BE1703AF0C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A93A08A7-49E3-43A9-93F3-9588D32870FD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e73b1f32-535a-40bf-95de-5e4e52a9bea4"/>
+    <ds:schemaRef ds:uri="0f2ac075-41ad-49ac-8f8f-deebc546c741"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>